--- a/python/Fitting Schemes.xlsx
+++ b/python/Fitting Schemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D20E118-E4E6-44F9-B753-997E44E02D9B}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="16140" windowHeight="11835" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
+    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="26">
   <si>
     <t>Fixed</t>
   </si>
@@ -98,10 +98,22 @@
     <t>Inherit(average)</t>
   </si>
   <si>
-    <t>DoseV</t>
-  </si>
-  <si>
-    <t>DoseRe</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T0IndP</t>
+  </si>
+  <si>
+    <t>Stage_A1</t>
+  </si>
+  <si>
+    <t>Stage_A2</t>
+  </si>
+  <si>
+    <t>Stage_B1</t>
+  </si>
+  <si>
+    <t>Stage_B2</t>
   </si>
 </sst>
 </file>
@@ -262,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -283,6 +295,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271DB39-32FD-4287-A225-42FF13DD3F8C}">
-  <dimension ref="I13:X23"/>
+  <dimension ref="I13:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,13 +660,13 @@
     <col min="24" max="24" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>2</v>
@@ -686,23 +707,27 @@
       <c r="X14" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I15" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="20"/>
+    </row>
+    <row r="16" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -714,7 +739,7 @@
       <c r="P16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R16" s="5" t="s">
@@ -738,149 +763,526 @@
       <c r="X16" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="Z16" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z17" s="20"/>
+    </row>
+    <row r="18" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2" t="s">
+      <c r="Z18" s="20"/>
+    </row>
+    <row r="19" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
+      <c r="M19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" s="5" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="W19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="X19" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z19" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z20" s="20"/>
+    </row>
+    <row r="21" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z21" s="20"/>
+    </row>
+    <row r="22" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q22" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="13" t="s">
+      <c r="Q22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="T22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="15" t="s">
+      <c r="V22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="20"/>
+    </row>
+    <row r="23" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="18" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="14" t="s">
         <v>5</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" s="15" t="s">
+      <c r="Q23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X23" s="6" t="s">
+      <c r="X23" s="26" t="s">
         <v>14</v>
       </c>
+      <c r="Z23" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="20"/>
+    </row>
+    <row r="26" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z26" s="20"/>
+    </row>
+    <row r="27" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z28" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="Z29" s="20"/>
+    </row>
+    <row r="30" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Z30" s="20"/>
+    </row>
+    <row r="31" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Z31" s="20"/>
+    </row>
+    <row r="32" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Z32" s="20"/>
+    </row>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z33" s="20"/>
+    </row>
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z34" s="20"/>
+    </row>
+    <row r="35" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z35" s="20"/>
+    </row>
+    <row r="36" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="20"/>
+    </row>
+    <row r="37" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="20"/>
+    </row>
+    <row r="38" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z38" s="20"/>
+    </row>
+    <row r="39" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z39" s="20"/>
+    </row>
+    <row r="40" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z40" s="20"/>
+    </row>
+    <row r="41" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z41" s="20"/>
+    </row>
+    <row r="42" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z42" s="20"/>
+    </row>
+    <row r="43" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z43" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python/Fitting Schemes.xlsx
+++ b/python/Fitting Schemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D20E118-E4E6-44F9-B753-997E44E02D9B}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4527B3-C188-43B6-AC27-BF4DAD087C18}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="26">
   <si>
     <t>Fixed</t>
   </si>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -295,15 +295,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,6 +317,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271DB39-32FD-4287-A225-42FF13DD3F8C}">
-  <dimension ref="I13:Z43"/>
+  <dimension ref="I13:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +709,7 @@
       <c r="X14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="23" t="s">
+      <c r="Z14" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -715,7 +717,6 @@
       <c r="I15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I16" s="8" t="s">
@@ -763,8 +764,8 @@
       <c r="X16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="23" t="s">
-        <v>17</v>
+      <c r="Z16" s="21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -813,13 +814,14 @@
       <c r="X17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="20"/>
+      <c r="Z17" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
@@ -864,8 +866,8 @@
       <c r="X19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z19" s="23" t="s">
-        <v>21</v>
+      <c r="Z19" s="21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,11 +913,11 @@
       <c r="X20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z20" s="20"/>
-    </row>
-    <row r="21" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z21" s="20"/>
-    </row>
+      <c r="Z20" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>7</v>
@@ -959,7 +961,9 @@
       <c r="X22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z22" s="20"/>
+      <c r="Z22" s="21" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
@@ -986,10 +990,10 @@
       <c r="R23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="23" t="s">
         <v>10</v>
       </c>
       <c r="U23" s="10" t="s">
@@ -1001,10 +1005,10 @@
       <c r="W23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X23" s="26" t="s">
+      <c r="X23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Z23" s="28" t="s">
+      <c r="Z23" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1051,7 +1055,7 @@
       <c r="X24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z24" s="24" t="s">
+      <c r="Z24" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1059,7 +1063,6 @@
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
@@ -1104,7 +1107,9 @@
       <c r="X26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z26" s="20"/>
+      <c r="Z26" s="21" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
@@ -1149,7 +1154,7 @@
       <c r="X27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Z27" s="27" t="s">
+      <c r="Z27" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1196,93 +1201,115 @@
       <c r="X28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z28" s="24" t="s">
+      <c r="Z28" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="Z29" s="20"/>
-    </row>
-    <row r="30" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Z30" s="20"/>
-    </row>
-    <row r="31" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Z31" s="20"/>
+    <row r="29" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z30" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X31" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z31" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Z32" s="20"/>
-    </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z33" s="20"/>
-    </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z34" s="20"/>
-    </row>
-    <row r="35" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z35" s="20"/>
-    </row>
-    <row r="36" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z36" s="20"/>
-    </row>
-    <row r="37" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z37" s="20"/>
-    </row>
-    <row r="38" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z38" s="20"/>
-    </row>
-    <row r="39" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z39" s="20"/>
-    </row>
-    <row r="40" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z40" s="20"/>
-    </row>
-    <row r="41" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z41" s="20"/>
-    </row>
-    <row r="42" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z42" s="20"/>
-    </row>
-    <row r="43" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z43" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python/Fitting Schemes.xlsx
+++ b/python/Fitting Schemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4527B3-C188-43B6-AC27-BF4DAD087C18}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F9F22A-8862-4423-B6A5-44BF5119597A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
+    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
   <si>
     <t>Fixed</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>Stage_B2</t>
+  </si>
+  <si>
+    <t>Memoli_Full</t>
+  </si>
+  <si>
+    <t>Memoli_Fix2</t>
+  </si>
+  <si>
+    <t>Memoli_Fix4</t>
+  </si>
+  <si>
+    <t>Memoli_Fix3</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>[p]</t>
   </si>
 </sst>
 </file>
@@ -274,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -302,6 +323,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,15 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271DB39-32FD-4287-A225-42FF13DD3F8C}">
-  <dimension ref="I13:Z32"/>
+  <dimension ref="I12:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="Y34" sqref="L34:Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.140625" bestFit="1" customWidth="1"/>
@@ -660,15 +684,60 @@
     <col min="21" max="21" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>2</v>
@@ -709,16 +778,16 @@
       <c r="X14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="21" t="s">
+      <c r="Y14" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I16" s="8" t="s">
         <v>16</v>
       </c>
@@ -764,11 +833,11 @@
       <c r="X16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="11" t="s">
         <v>18</v>
       </c>
@@ -814,16 +883,16 @@
       <c r="X17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="21" t="s">
+      <c r="Y17" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
         <v>7</v>
       </c>
@@ -866,11 +935,11 @@
       <c r="X19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z19" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y19" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K20" t="s">
         <v>3</v>
       </c>
@@ -913,12 +982,12 @@
       <c r="X20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z20" s="21" t="s">
+      <c r="Y20" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>7</v>
       </c>
@@ -961,11 +1030,11 @@
       <c r="X22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z22" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y22" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>3</v>
       </c>
@@ -1008,11 +1077,11 @@
       <c r="X23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Z23" s="26" t="s">
+      <c r="Y23" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>3</v>
       </c>
@@ -1055,16 +1124,16 @@
       <c r="X24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z24" s="22" t="s">
+      <c r="Y24" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>7</v>
       </c>
@@ -1107,11 +1176,11 @@
       <c r="X26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z26" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y26" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>3</v>
       </c>
@@ -1154,11 +1223,11 @@
       <c r="X27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Z27" s="25" t="s">
+      <c r="Y27" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K28" t="s">
         <v>3</v>
       </c>
@@ -1201,12 +1270,12 @@
       <c r="X28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z28" s="22" t="s">
+      <c r="Y28" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K30" t="s">
         <v>7</v>
       </c>
@@ -1249,11 +1318,11 @@
       <c r="X30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z30" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y30" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
         <v>3</v>
       </c>
@@ -1296,11 +1365,11 @@
       <c r="X31" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Z31" s="21" t="s">
+      <c r="Y31" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:25" x14ac:dyDescent="0.25">
       <c r="O32" s="20"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
@@ -1311,6 +1380,242 @@
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
     </row>
+    <row r="33" spans="11:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="11:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y34" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="11:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y35" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="11:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y36" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="11:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X37" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y37" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="11:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X38" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y38" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/python/Fitting Schemes.xlsx
+++ b/python/Fitting Schemes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F9F22A-8862-4423-B6A5-44BF5119597A}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{570FB6EA-73D3-4C76-866C-376D743D5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E19C20-2B93-4D63-BE13-2B11CA579803}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="16140" windowHeight="11835" xr2:uid="{464F8F3F-8C30-42BB-B2F5-CEED49BA19B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="memory" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="36">
   <si>
     <t>Fixed</t>
   </si>
@@ -135,13 +136,38 @@
   </si>
   <si>
     <t>[p]</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>ζ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +185,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -295,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -325,6 +357,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +701,7 @@
   <dimension ref="I12:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="Y34" sqref="L34:Y38"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,4 +1655,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DB3AEC-948D-4F20-B4DF-1818CAE3F9F3}">
+  <dimension ref="C7:V12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>